--- a/merged_graphs_and_tables.xlsx
+++ b/merged_graphs_and_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93dbdd93e158fecc/Desktop/Capstone_Cycles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{BB2355A9-7D36-47F0-8484-0B6A7DAF72BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{950EBAEF-4E56-4ABD-BB00-7AAFA5871917}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{BB2355A9-7D36-47F0-8484-0B6A7DAF72BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44EB036B-85C4-46D5-8F5B-55A65BD30EFB}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10180" activeTab="1" xr2:uid="{526FAE4C-232C-4DEE-A1FF-3E7532BD6396}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" activeTab="1" xr2:uid="{526FAE4C-232C-4DEE-A1FF-3E7532BD6396}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables for graph" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -252,762 +251,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Ride Length</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> per Week</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Sheet2!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>casual</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>[2]Sheet2!$B$2:$I$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>[2]Sheet2!$B$2:$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>[2]Sheet2!$B$3:$I$3</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>[2]Sheet2!$B$3:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss;@</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.5766705971338602E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3530920520964334E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1825953843207469E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1856956833366445E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.178966370370558E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2514485405142231E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4896231958315596E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F323-4316-BA7B-9052CC210D11}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Sheet2!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>member</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="182880" tIns="19050" rIns="0" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="rect">
-                    <a:avLst/>
-                  </a:prstGeom>
-                </c15:spPr>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>[2]Sheet2!$B$2:$I$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>[2]Sheet2!$B$2:$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>[2]Sheet2!$B$4:$I$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>[2]Sheet2!$B$4:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss;@</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8.9138219279419773E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.6897799712212535E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.8196816674479894E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7936861219792134E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.7749946410308945E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.9973542943796976E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.7820639020007515E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F323-4316-BA7B-9052CC210D11}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="700281880"/>
-        <c:axId val="700285840"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[2]Sheet2!$A$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Grand Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>[2]Sheet2!$B$2:$I$2</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>[2]Sheet2!$B$2:$H$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>[2]Sheet2!$B$5:$I$5</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>[2]Sheet2!$B$5:$H$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>h:mm:ss;@</c:formatCode>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="0">
-                        <c:v>1.1825103395980337E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>9.6010639156479671E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>9.0267697515324617E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8.8968222070638266E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9.0263281134845986E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>9.5720549623248639E-3</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.1434358959696798E-2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-F323-4316-BA7B-9052CC210D11}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="700281880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Day</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Week</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="700285840"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="700285840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> ride length (hr/min/sec)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="h:mm:ss;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="700281880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
@@ -1042,7 +285,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet2!$B$8</c:f>
+              <c:f>[1]Sheet2!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1121,7 +364,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>[2]Sheet2!$A$9:$A$20</c:f>
+              <c:f>[1]Sheet2!$A$9:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1166,7 +409,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet2!$B$9:$B$20</c:f>
+              <c:f>[1]Sheet2!$B$9:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss;@</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1211,7 +454,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C52B-4BCE-ADAA-EE4B66CF1FAB}"/>
+              <c16:uniqueId val="{00000000-A3FA-43EF-BD1E-0068E393EBC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1220,7 +463,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet2!$C$8</c:f>
+              <c:f>[1]Sheet2!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1304,7 +547,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>[2]Sheet2!$A$9:$A$20</c:f>
+              <c:f>[1]Sheet2!$A$9:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1349,7 +592,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet2!$C$9:$C$20</c:f>
+              <c:f>[1]Sheet2!$C$9:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss;@</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1394,7 +637,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C52B-4BCE-ADAA-EE4B66CF1FAB}"/>
+              <c16:uniqueId val="{00000001-A3FA-43EF-BD1E-0068E393EBC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1421,7 +664,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>[2]Sheet2!$A$8</c15:sqref>
+                          <c15:sqref>[1]Sheet2!$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1506,7 +749,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>[2]Sheet2!$A$9:$A$20</c15:sqref>
+                          <c15:sqref>[1]Sheet2!$A$9:$A$20</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1557,7 +800,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>[2]Sheet2!$A$9:$A$20</c15:sqref>
+                          <c15:sqref>[1]Sheet2!$A$9:$A$20</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1605,7 +848,7 @@
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-C52B-4BCE-ADAA-EE4B66CF1FAB}"/>
+                    <c16:uniqueId val="{00000002-A3FA-43EF-BD1E-0068E393EBC7}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1866,27 +1109,775 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Ride Length</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> per Week</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>casual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss;@</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5766705971338602E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3530920520964334E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1825953843207469E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1856956833366445E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.178966370370558E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2514485405142231E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4896231958315596E-2</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$2:$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37D7-4449-9C3A-3F96F21EA05A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>member</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="182880" tIns="19050" rIns="0" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss;@</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.9138219279419773E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6897799712212535E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8196816674479894E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7936861219792134E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7749946410308945E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9973542943796976E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7820639020007515E-3</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$2:$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37D7-4449-9C3A-3F96F21EA05A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="700281880"/>
+        <c:axId val="700285840"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Sheet2!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Grand Total</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$B$5:$H$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>h:mm:ss;@</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1.1825103395980337E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9.6010639156479671E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9.0267697515324617E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.8968222070638266E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9.0263281134845986E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9.5720549623248639E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.1434358959696798E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:filteredCategoryTitle>
+                      <c15:cat>
+                        <c:strRef>
+                          <c:extLst>
+                            <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                              <c15:formulaRef>
+                                <c15:sqref>Sheet2!$B$2:$H$2</c15:sqref>
+                              </c15:formulaRef>
+                            </c:ext>
+                          </c:extLst>
+                          <c:strCache>
+                            <c:ptCount val="7"/>
+                            <c:pt idx="0">
+                              <c:v>1</c:v>
+                            </c:pt>
+                            <c:pt idx="1">
+                              <c:v>2</c:v>
+                            </c:pt>
+                            <c:pt idx="2">
+                              <c:v>3</c:v>
+                            </c:pt>
+                            <c:pt idx="3">
+                              <c:v>4</c:v>
+                            </c:pt>
+                            <c:pt idx="4">
+                              <c:v>5</c:v>
+                            </c:pt>
+                            <c:pt idx="5">
+                              <c:v>6</c:v>
+                            </c:pt>
+                            <c:pt idx="6">
+                              <c:v>7</c:v>
+                            </c:pt>
+                          </c:strCache>
+                        </c:strRef>
+                      </c15:cat>
+                    </c15:filteredCategoryTitle>
+                  </c:ext>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-37D7-4449-9C3A-3F96F21EA05A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="700281880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Week</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700285840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="700285840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> ride length (hr/min/sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm:ss;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700281880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>498474</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>72873</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C356FB5A-762B-452F-850C-D2B5DA6743DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866B8ED4-51AB-4905-A5F4-B0126459B90E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,23 +1899,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>72873</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>587376</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2998E6F7-44D3-4F59-AAD0-FA9B12B8EAD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413D60C0-6885-49F8-9033-184D136C1E57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,19 +1939,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -2329,6 +2307,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2664,7 +2646,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+      <selection activeCell="H2" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2721,35 +2703,35 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","casual","day_of_week",1))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","casual","day_of_week",1))</f>
         <v>1.5766705971338602E-2</v>
       </c>
       <c r="C3" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","casual","day_of_week",2))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","casual","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","casual","day_of_week",2))</f>
         <v>1.3530920520964334E-2</v>
       </c>
       <c r="D3" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","casual","day_of_week",3))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","casual","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","casual","day_of_week",3))</f>
         <v>1.1825953843207469E-2</v>
       </c>
       <c r="E3" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","casual","day_of_week",4))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","casual","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","casual","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","casual","day_of_week",4))</f>
         <v>1.1856956833366445E-2</v>
       </c>
       <c r="F3" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","casual","day_of_week",5))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","casual","day_of_week",5))</f>
         <v>1.178966370370558E-2</v>
       </c>
       <c r="G3" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","casual","day_of_week",6))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","casual","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","casual","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","casual","day_of_week",6))</f>
         <v>1.2514485405142231E-2</v>
       </c>
       <c r="H3" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","casual","day_of_week",7))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","casual","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","casual","day_of_week",7))</f>
         <v>1.4896231958315596E-2</v>
       </c>
       <c r="I3" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","member"))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","casual"),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","member"))</f>
         <v>1.2869405051771312E-2</v>
       </c>
     </row>
@@ -2758,35 +2740,35 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","member","day_of_week",1))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","member","day_of_week",1),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","member","day_of_week",1))</f>
         <v>8.9138219279419773E-3</v>
       </c>
       <c r="C4" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","member","day_of_week",2))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","member","day_of_week",2),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","member","day_of_week",2))</f>
         <v>7.6897799712212535E-3</v>
       </c>
       <c r="D4" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","member","day_of_week",3))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","member","day_of_week",3))</f>
         <v>7.8196816674479894E-3</v>
       </c>
       <c r="E4" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","member","day_of_week",4))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","member","day_of_week",3),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","member","day_of_week",4),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","member","day_of_week",4))</f>
         <v>7.7936861219792134E-3</v>
       </c>
       <c r="F4" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","member","day_of_week",5))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","member","day_of_week",5),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","member","day_of_week",5))</f>
         <v>7.7749946410308945E-3</v>
       </c>
       <c r="G4" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","member","day_of_week",6))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","member","day_of_week",6),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","member","day_of_week",6))</f>
         <v>7.9973542943796976E-3</v>
       </c>
       <c r="H4" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","member","day_of_week",7))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","member","day_of_week",7),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","member","day_of_week",7))</f>
         <v>8.7820639020007515E-3</v>
       </c>
       <c r="I4" s="4">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"member_casual","member"))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"member_casual","member"),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"member_casual","member"))</f>
         <v>8.0703625803089565E-3</v>
       </c>
     </row>
@@ -2795,35 +2777,35 @@
         <v>2</v>
       </c>
       <c r="B5" s="6">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"day_of_week",1))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"day_of_week",1))</f>
         <v>1.1825103395980337E-2</v>
       </c>
       <c r="C5" s="6">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"day_of_week",2))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"day_of_week",1),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"day_of_week",2),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"day_of_week",2))</f>
         <v>9.6010639156479671E-3</v>
       </c>
       <c r="D5" s="6">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"day_of_week",3))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"day_of_week",3),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"day_of_week",3))</f>
         <v>9.0267697515324617E-3</v>
       </c>
       <c r="E5" s="6">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"day_of_week",4))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"day_of_week",4),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"day_of_week",4))</f>
         <v>8.8968222070638266E-3</v>
       </c>
       <c r="F5" s="6">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"day_of_week",5))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"day_of_week",5))</f>
         <v>9.0263281134845986E-3</v>
       </c>
       <c r="G5" s="6">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"day_of_week",6))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"day_of_week",5),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"day_of_week",6),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"day_of_week",6))</f>
         <v>9.5720549623248639E-3</v>
       </c>
       <c r="H5" s="6">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1,"day_of_week",7))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1,"day_of_week",7),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1,"day_of_week",7))</f>
         <v>1.1434358959696798E-2</v>
       </c>
       <c r="I5" s="6">
-        <f>AVERAGE(GETPIVOTDATA("ride_length",'[2]202211_pivot'!$A$1),GETPIVOTDATA("ride_length",'[2]202212_pivot'!$A$1),GETPIVOTDATA("ride_length",'[2]202301_pivot'!$A$1),GETPIVOTDATA("ride_length",'[2]202302_pivot'!$A$1),GETPIVOTDATA("ride_length",'[2]202303_pivot'!$A$1),GETPIVOTDATA("ride_length",'[2]202304_pivot'!$A$1),GETPIVOTDATA("ride_length",'[2]202305_pivot'!$A$1),GETPIVOTDATA("ride_length",'[2]202306_pivot'!$A$1),GETPIVOTDATA("ride_length",'[2]202307_pivot'!$A$1),GETPIVOTDATA("ride_length",'[2]202308_pivot'!$A$1),GETPIVOTDATA("ride_length",'[2]202309_pivot'!$A$1),GETPIVOTDATA("ride_length",'[2]202310_pivot'!$A$1))</f>
+        <f>AVERAGE(GETPIVOTDATA("ride_length",'[1]202211_pivot'!$A$1),GETPIVOTDATA("ride_length",'[1]202212_pivot'!$A$1),GETPIVOTDATA("ride_length",'[1]202301_pivot'!$A$1),GETPIVOTDATA("ride_length",'[1]202302_pivot'!$A$1),GETPIVOTDATA("ride_length",'[1]202303_pivot'!$A$1),GETPIVOTDATA("ride_length",'[1]202304_pivot'!$A$1),GETPIVOTDATA("ride_length",'[1]202305_pivot'!$A$1),GETPIVOTDATA("ride_length",'[1]202306_pivot'!$A$1),GETPIVOTDATA("ride_length",'[1]202307_pivot'!$A$1),GETPIVOTDATA("ride_length",'[1]202308_pivot'!$A$1),GETPIVOTDATA("ride_length",'[1]202309_pivot'!$A$1),GETPIVOTDATA("ride_length",'[1]202310_pivot'!$A$1))</f>
         <v>9.8965810631383624E-3</v>
       </c>
     </row>
@@ -3163,8 +3145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D800F8-81A2-4573-A129-BD19B8B35507}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
